--- a/visualization/Website (Chrome).xlsx
+++ b/visualization/Website (Chrome).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5647CD9-AC03-4815-897B-76A73D6DE11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilds\Documents\GitHub\adblock-research\visualization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E8148A-6AA5-46C8-96E1-26447A2A9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +200,6 @@
     <t>https://www.bestbuy.com/</t>
   </si>
   <si>
-    <t>Download</t>
-  </si>
-  <si>
     <t>https://download.cnet.com/</t>
   </si>
   <si>
@@ -229,13 +231,16 @@
   </si>
   <si>
     <t>https://www.accuweather.com/</t>
+  </si>
+  <si>
+    <t>CNET Download</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,11 +601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="58.140625" customWidth="1"/>
@@ -609,7 +614,7 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -655,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -678,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -701,7 +706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -724,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -747,7 +752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -770,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -793,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -816,7 +821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -839,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -862,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -885,7 +890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -908,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -931,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -954,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -977,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1023,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1115,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1161,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1184,12 +1189,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -1207,12 +1212,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1230,12 +1235,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C28">
         <v>24</v>
@@ -1253,12 +1258,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -1276,12 +1281,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -1299,12 +1304,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C31">
         <v>13</v>
